--- a/teams_expanded.xlsx
+++ b/teams_expanded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\volleyalex_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F811C6C-453C-4D0B-B1A5-540B34734282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92879BE-0CA1-4DF9-9511-09AD613EE075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>team_name</t>
   </si>
   <si>
-    <t>age_category</t>
-  </si>
-  <si>
     <t>Team A براعم بنات تحت 9 سنوات</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>الأشبال بنين تحت 13 سنة</t>
+  </si>
+  <si>
+    <t>age_categories</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -575,10 +575,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -586,10 +586,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -597,10 +597,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -608,10 +608,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -619,10 +619,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -630,10 +630,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -641,10 +641,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -652,10 +652,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -663,10 +663,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -674,10 +674,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -685,10 +685,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -696,10 +696,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -707,10 +707,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -718,10 +718,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -729,10 +729,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -740,10 +740,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -751,10 +751,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -762,10 +762,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -773,10 +773,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -784,10 +784,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -795,10 +795,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -806,10 +806,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -817,10 +817,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -828,10 +828,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -839,10 +839,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -850,10 +850,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -861,10 +861,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -872,10 +872,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -883,10 +883,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -894,10 +894,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -905,10 +905,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -916,10 +916,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -927,10 +927,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -938,10 +938,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -949,10 +949,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -960,10 +960,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -971,10 +971,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -982,10 +982,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -993,10 +993,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1004,10 +1004,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
